--- a/Matches.xlsx
+++ b/Matches.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1683bccbd15641e9/Dokumenter/Programming/Python Projects/Private_Projects/Bordtennis EloRankings/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7A1D20F9F613C8E64009981DE3B6D8D47452E8A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E5983A8-187E-4DBF-A8C6-B9969CC92014}"/>
   <bookViews>
-    <workbookView xWindow="-17160" yWindow="-7368" windowWidth="17160" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
   <si>
     <t>Player A</t>
   </si>
@@ -94,6 +88,9 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>10-11</t>
+  </si>
+  <si>
     <t>11:00</t>
   </si>
   <si>
@@ -161,13 +158,19 @@
   </si>
   <si>
     <t>16:45</t>
+  </si>
+  <si>
+    <t>22:21</t>
+  </si>
+  <si>
+    <t>22:22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,14 +233,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,27 +311,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,24 +345,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,16 +520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -607,10 +564,10 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -627,10 +584,10 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -647,10 +604,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -667,10 +624,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -687,10 +644,10 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -707,10 +664,10 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -727,10 +684,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -747,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -767,10 +724,10 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -787,10 +744,10 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -807,10 +764,10 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -827,10 +784,10 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -847,10 +804,10 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -867,10 +824,10 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -887,10 +844,10 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -907,10 +864,10 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -927,10 +884,10 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -947,10 +904,10 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -967,10 +924,10 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -987,10 +944,10 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1007,10 +964,10 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1027,10 +984,10 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1047,10 +1004,10 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1067,10 +1024,10 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1087,10 +1044,10 @@
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1107,7 +1064,47 @@
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Matches.xlsx
+++ b/Matches.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
   <si>
     <t>Player A</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>22:22</t>
+  </si>
+  <si>
+    <t>22:40</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1107,6 +1110,26 @@
         <v>49</v>
       </c>
     </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Matches.xlsx
+++ b/Matches.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1683bccbd15641e9/Dokumenter/GitHub/Bordtennis-EloRankings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_71C5C1FFF613C8464D309889C0F0FCEC7452DBBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9798374-CC9B-4C3B-B99B-CBD2A31ACB56}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-17160" yWindow="-7368" windowWidth="17160" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>Player A</t>
   </si>
@@ -88,9 +94,6 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>10-11</t>
-  </si>
-  <si>
     <t>11:00</t>
   </si>
   <si>
@@ -158,22 +161,13 @@
   </si>
   <si>
     <t>16:45</t>
-  </si>
-  <si>
-    <t>22:21</t>
-  </si>
-  <si>
-    <t>22:22</t>
-  </si>
-  <si>
-    <t>22:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +230,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -282,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,9 +316,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,6 +368,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,14 +561,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -567,10 +607,10 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -587,10 +627,10 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -607,10 +647,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -627,10 +667,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -647,10 +687,10 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -667,10 +707,10 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -687,10 +727,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -707,10 +747,10 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -727,10 +767,10 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -747,10 +787,10 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -767,10 +807,10 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -787,10 +827,10 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -807,10 +847,10 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -827,10 +867,10 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -847,10 +887,10 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -867,10 +907,10 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -887,10 +927,10 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -907,10 +947,10 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -927,10 +967,10 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -947,10 +987,10 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -967,10 +1007,10 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -987,10 +1027,10 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1007,10 +1047,10 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1027,10 +1067,10 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1047,10 +1087,10 @@
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1067,67 +1107,7 @@
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Matches.xlsx
+++ b/Matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1683bccbd15641e9/Dokumenter/GitHub/Bordtennis-EloRankings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_71C5C1FFF613C8464D309889C0F0FCEC7452DBBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9798374-CC9B-4C3B-B99B-CBD2A31ACB56}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDE1EB8BED7C2298D2C3B4E8BE7552ACA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A52D60E2-DC79-43CA-B10C-1A4AE012E386}"/>
   <bookViews>
     <workbookView xWindow="-17160" yWindow="-7368" windowWidth="17160" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
   <si>
     <t>Player A</t>
   </si>
@@ -94,6 +94,9 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>11-11</t>
+  </si>
+  <si>
     <t>11:00</t>
   </si>
   <si>
@@ -161,6 +164,18 @@
   </si>
   <si>
     <t>16:45</t>
+  </si>
+  <si>
+    <t>8:46</t>
+  </si>
+  <si>
+    <t>8:47</t>
+  </si>
+  <si>
+    <t>8:52</t>
+  </si>
+  <si>
+    <t>Nikolai</t>
   </si>
 </sst>
 </file>
@@ -562,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -627,7 +642,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -647,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -667,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,7 +722,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -727,7 +742,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -747,7 +762,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -767,7 +782,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -787,7 +802,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,7 +822,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -847,7 +862,7 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,7 +882,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -907,7 +922,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -927,7 +942,7 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -947,7 +962,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,7 +982,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,7 +1002,7 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1007,7 +1022,7 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1027,7 +1042,7 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1047,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,7 +1082,7 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,7 +1102,7 @@
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,7 +1122,147 @@
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Matches.xlsx
+++ b/Matches.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1683bccbd15641e9/Dokumenter/GitHub/Bordtennis-EloRankings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmilHaldan\GitHub\Bordtennis-EloRankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDE1EB8BED7C2298D2C3B4E8BE7552ACA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A52D60E2-DC79-43CA-B10C-1A4AE012E386}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4BD9BE-4DB5-4F16-AA33-B2E1EDF4733D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17160" yWindow="-7368" windowWidth="17160" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20660" yWindow="120" windowWidth="19160" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
   <si>
     <t>Player A</t>
   </si>
@@ -176,6 +176,39 @@
   </si>
   <si>
     <t>Nikolai</t>
+  </si>
+  <si>
+    <t>10:46</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12:27</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>13:14</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>14-11</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>15:15</t>
   </si>
 </sst>
 </file>
@@ -234,9 +267,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -577,692 +611,835 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="6" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Matches.xlsx
+++ b/Matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmilHaldan\GitHub\Bordtennis-EloRankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1380E0A-F46C-43BE-B8E1-2473581EF7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70A1E98-6968-4482-A588-485088F67BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20660" yWindow="120" windowWidth="19160" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,6 +70,9 @@
     <t>Jesper</t>
   </si>
   <si>
+    <t>Heiko</t>
+  </si>
+  <si>
     <t>Caro</t>
   </si>
   <si>
@@ -77,9 +80,6 @@
   </si>
   <si>
     <t>Nikolaj</t>
-  </si>
-  <si>
-    <t>Heiko</t>
   </si>
   <si>
     <t>01-11</t>
@@ -622,7 +622,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,7 +812,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -912,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1072,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1112,7 +1112,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1212,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1292,7 +1292,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1332,7 +1332,7 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1532,7 +1532,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>1</v>

--- a/Matches.xlsx
+++ b/Matches.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmilHaldan\GitHub\Bordtennis-EloRankings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70A1E98-6968-4482-A588-485088F67BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20660" yWindow="120" windowWidth="19160" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
   <si>
     <t>Player A</t>
   </si>
@@ -70,18 +64,18 @@
     <t>Jesper</t>
   </si>
   <si>
+    <t>Caro</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Nikolaj</t>
+  </si>
+  <si>
     <t>Heiko</t>
   </si>
   <si>
-    <t>Caro</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Nikolaj</t>
-  </si>
-  <si>
     <t>01-11</t>
   </si>
   <si>
@@ -218,13 +212,22 @@
   </si>
   <si>
     <t>13:16</t>
+  </si>
+  <si>
+    <t>14:13</t>
+  </si>
+  <si>
+    <t>14:17</t>
+  </si>
+  <si>
+    <t>16:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,14 +290,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -341,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,27 +368,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,24 +402,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,16 +577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -667,7 +624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -687,7 +644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -707,7 +664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -727,7 +684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -747,7 +704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -767,7 +724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -787,7 +744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -807,12 +764,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -827,7 +784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -847,7 +804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -867,7 +824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -887,7 +844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -907,12 +864,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -927,7 +884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -947,7 +904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -967,7 +924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -987,7 +944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +984,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1067,12 +1024,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1087,7 +1044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1107,12 +1064,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1127,7 +1084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1147,7 +1104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1187,7 +1144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1207,12 +1164,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1227,7 +1184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1247,7 +1204,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1287,12 +1244,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1307,7 +1264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1327,12 +1284,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1347,7 +1304,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1387,7 +1344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1407,7 +1364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1427,7 +1384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1447,7 +1404,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1444,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1507,12 +1464,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1527,12 +1484,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1547,12 +1504,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1565,6 +1522,66 @@
       </c>
       <c r="F47" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Matches.xlsx
+++ b/Matches.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="80">
   <si>
     <t>Player A</t>
   </si>
@@ -67,6 +67,9 @@
     <t>Caro</t>
   </si>
   <si>
+    <t>Nanna</t>
+  </si>
+  <si>
     <t>Michael</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>Heiko</t>
   </si>
   <si>
+    <t>Martin</t>
+  </si>
+  <si>
     <t>01-11</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>15-11</t>
   </si>
   <si>
+    <t>22-11</t>
+  </si>
+  <si>
     <t>11:00</t>
   </si>
   <si>
@@ -221,6 +230,30 @@
   </si>
   <si>
     <t>16:55</t>
+  </si>
+  <si>
+    <t>13:50</t>
+  </si>
+  <si>
+    <t>13:51</t>
+  </si>
+  <si>
+    <t>13:52</t>
+  </si>
+  <si>
+    <t>13:53</t>
+  </si>
+  <si>
+    <t>13:54</t>
+  </si>
+  <si>
+    <t>13:58</t>
+  </si>
+  <si>
+    <t>13:59</t>
+  </si>
+  <si>
+    <t>16:01</t>
   </si>
 </sst>
 </file>
@@ -578,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -638,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -658,10 +691,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -678,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -698,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -718,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -738,10 +771,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -758,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -778,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -798,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -818,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -838,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -858,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -869,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -878,10 +911,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -898,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,10 +971,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,10 +1011,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,10 +1031,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1038,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,10 +1151,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1238,10 +1271,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1249,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1258,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1278,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1298,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1318,10 +1351,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1338,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1358,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1378,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1398,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1418,10 +1451,10 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1438,10 +1471,10 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1458,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1469,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1478,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1498,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1509,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1518,10 +1551,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1538,10 +1571,10 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1558,10 +1591,10 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1569,19 +1602,419 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
         <v>17</v>
       </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" t="s">
-        <v>68</v>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
